--- a/01_analyses_states/Chandigarh/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Chandigarh/results/SoIB_summaries.xlsx
@@ -531,10 +531,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -546,9 +543,6 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -557,10 +551,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,10 +561,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>36</v>
-      </c>
-      <c r="C5">
-        <v>14.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -583,10 +571,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>89</v>
-      </c>
-      <c r="C6">
-        <v>35.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -596,10 +581,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>118</v>
-      </c>
-      <c r="C7">
-        <v>47.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +712,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -785,6 +767,12 @@
       <c r="C2">
         <v>100</v>
       </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_analyses_states/Chandigarh/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Chandigarh/results/SoIB_summaries.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Range Status" sheetId="2" r:id="rId2"/>
     <sheet name="Priority Status" sheetId="3" r:id="rId3"/>
     <sheet name="Species qualification" sheetId="4" r:id="rId4"/>
-    <sheet name="High Priority break-up" sheetId="5" r:id="rId5"/>
+    <sheet name="Interannual update - High Pri" sheetId="5" r:id="rId5"/>
+    <sheet name="Major update - High Priority " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -398,10 +399,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -416,9 +414,6 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -430,10 +425,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -448,9 +440,6 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -464,9 +453,6 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -488,10 +474,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C8">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +602,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -626,7 +612,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
@@ -636,7 +622,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>212</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -672,11 +658,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SoIB 2023 Assessment</t>
+          <t>SoIB Assessment</t>
         </is>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3">
@@ -699,10 +685,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -721,6 +707,84 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Break-up</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>High Species (no.)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High Species (perc.)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>New High Species (no.)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>New High Species (perc.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Trend New</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>88</v>
+      </c>
+      <c r="C2">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="D2">
+        <v>88</v>
+      </c>
+      <c r="E2">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IUCN</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>14.6</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>12.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
